--- a/config_debug/extend_eliminate_sg_every_day_config.xlsx
+++ b/config_debug/extend_eliminate_sg_every_day_config.xlsx
@@ -139,19 +139,24 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>累计消60个苹果（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个铃铛（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个西瓜（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个7（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个BAR（福卡）</t>
+    <t>累计消60个苹果（福利券）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消60个铃铛（福利券）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消60个西瓜（福利券）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消60个7（福利券）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消60个BAR（福利券）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,7 +546,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
